--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A150732A-3720-4504-8773-B7D6C7BA865E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C3449D-7131-4D77-AAF5-005497E04CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="259">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -268,6 +253,570 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>daynite</t>
+  </si>
+  <si>
+    <t>wparent</t>
+  </si>
+  <si>
+    <t>dparent</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>0114h01</t>
+  </si>
+  <si>
+    <t>W,R,S,F</t>
+  </si>
+  <si>
+    <t>0114h02</t>
+  </si>
+  <si>
+    <t>0114h03</t>
+  </si>
+  <si>
+    <t>0114h04</t>
+  </si>
+  <si>
+    <t>0114h05</t>
+  </si>
+  <si>
+    <t>0114h06</t>
+  </si>
+  <si>
+    <t>0114h07</t>
+  </si>
+  <si>
+    <t>0114h08</t>
+  </si>
+  <si>
+    <t>0114h09</t>
+  </si>
+  <si>
+    <t>0114h10</t>
+  </si>
+  <si>
+    <t>0114h11</t>
+  </si>
+  <si>
+    <t>0114h12</t>
+  </si>
+  <si>
+    <t>0114h13</t>
+  </si>
+  <si>
+    <t>0114h14</t>
+  </si>
+  <si>
+    <t>0114h15</t>
+  </si>
+  <si>
+    <t>0114h16</t>
+  </si>
+  <si>
+    <t>0114h17</t>
+  </si>
+  <si>
+    <t>0114h18</t>
+  </si>
+  <si>
+    <t>0114h19</t>
+  </si>
+  <si>
+    <t>0114h20</t>
+  </si>
+  <si>
+    <t>0114h21</t>
+  </si>
+  <si>
+    <t>0114h22</t>
+  </si>
+  <si>
+    <t>0114h23</t>
+  </si>
+  <si>
+    <t>0114h24</t>
+  </si>
+  <si>
+    <t>0115h01</t>
+  </si>
+  <si>
+    <t>0115h02</t>
+  </si>
+  <si>
+    <t>0115h03</t>
+  </si>
+  <si>
+    <t>0115h04</t>
+  </si>
+  <si>
+    <t>0115h05</t>
+  </si>
+  <si>
+    <t>0115h06</t>
+  </si>
+  <si>
+    <t>0115h07</t>
+  </si>
+  <si>
+    <t>0115h08</t>
+  </si>
+  <si>
+    <t>0115h09</t>
+  </si>
+  <si>
+    <t>0115h10</t>
+  </si>
+  <si>
+    <t>0115h11</t>
+  </si>
+  <si>
+    <t>0115h12</t>
+  </si>
+  <si>
+    <t>0115h13</t>
+  </si>
+  <si>
+    <t>0115h14</t>
+  </si>
+  <si>
+    <t>0115h15</t>
+  </si>
+  <si>
+    <t>0115h16</t>
+  </si>
+  <si>
+    <t>0115h17</t>
+  </si>
+  <si>
+    <t>0115h18</t>
+  </si>
+  <si>
+    <t>0115h19</t>
+  </si>
+  <si>
+    <t>0115h20</t>
+  </si>
+  <si>
+    <t>0115h21</t>
+  </si>
+  <si>
+    <t>0115h22</t>
+  </si>
+  <si>
+    <t>0115h23</t>
+  </si>
+  <si>
+    <t>0115h24</t>
+  </si>
+  <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>FaD</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_spv-BGR</t>
+  </si>
+  <si>
+    <t>FaN</t>
+  </si>
+  <si>
+    <t>FaP</t>
+  </si>
+  <si>
+    <t>RaD</t>
+  </si>
+  <si>
+    <t>RaN</t>
+  </si>
+  <si>
+    <t>RaP</t>
+  </si>
+  <si>
+    <t>SaD</t>
+  </si>
+  <si>
+    <t>SaN</t>
+  </si>
+  <si>
+    <t>SaP</t>
+  </si>
+  <si>
+    <t>WaD</t>
+  </si>
+  <si>
+    <t>WaN</t>
+  </si>
+  <si>
+    <t>WaP</t>
+  </si>
+  <si>
+    <t>Wb0114h01</t>
+  </si>
+  <si>
+    <t>Wb0114h02</t>
+  </si>
+  <si>
+    <t>Wb0114h03</t>
+  </si>
+  <si>
+    <t>Wb0114h04</t>
+  </si>
+  <si>
+    <t>Wb0114h05</t>
+  </si>
+  <si>
+    <t>Wb0114h06</t>
+  </si>
+  <si>
+    <t>Wb0114h07</t>
+  </si>
+  <si>
+    <t>Wb0114h08</t>
+  </si>
+  <si>
+    <t>Wb0114h09</t>
+  </si>
+  <si>
+    <t>Wb0114h10</t>
+  </si>
+  <si>
+    <t>Wb0114h11</t>
+  </si>
+  <si>
+    <t>Wb0114h12</t>
+  </si>
+  <si>
+    <t>Wb0114h13</t>
+  </si>
+  <si>
+    <t>Wb0114h14</t>
+  </si>
+  <si>
+    <t>Wb0114h15</t>
+  </si>
+  <si>
+    <t>Wb0114h16</t>
+  </si>
+  <si>
+    <t>Wb0114h17</t>
+  </si>
+  <si>
+    <t>Wb0114h18</t>
+  </si>
+  <si>
+    <t>Wb0114h19</t>
+  </si>
+  <si>
+    <t>Wb0114h20</t>
+  </si>
+  <si>
+    <t>Wb0114h21</t>
+  </si>
+  <si>
+    <t>Wb0114h22</t>
+  </si>
+  <si>
+    <t>Wb0114h23</t>
+  </si>
+  <si>
+    <t>Wb0114h24</t>
+  </si>
+  <si>
+    <t>Wb0115h01</t>
+  </si>
+  <si>
+    <t>Wb0115h02</t>
+  </si>
+  <si>
+    <t>Wb0115h03</t>
+  </si>
+  <si>
+    <t>Wb0115h04</t>
+  </si>
+  <si>
+    <t>Wb0115h05</t>
+  </si>
+  <si>
+    <t>Wb0115h06</t>
+  </si>
+  <si>
+    <t>Wb0115h07</t>
+  </si>
+  <si>
+    <t>Wb0115h08</t>
+  </si>
+  <si>
+    <t>Wb0115h09</t>
+  </si>
+  <si>
+    <t>Wb0115h10</t>
+  </si>
+  <si>
+    <t>Wb0115h11</t>
+  </si>
+  <si>
+    <t>Wb0115h12</t>
+  </si>
+  <si>
+    <t>Wb0115h13</t>
+  </si>
+  <si>
+    <t>Wb0115h14</t>
+  </si>
+  <si>
+    <t>Wb0115h15</t>
+  </si>
+  <si>
+    <t>Wb0115h16</t>
+  </si>
+  <si>
+    <t>Wb0115h17</t>
+  </si>
+  <si>
+    <t>Wb0115h18</t>
+  </si>
+  <si>
+    <t>Wb0115h19</t>
+  </si>
+  <si>
+    <t>Wb0115h20</t>
+  </si>
+  <si>
+    <t>Wb0115h21</t>
+  </si>
+  <si>
+    <t>Wb0115h22</t>
+  </si>
+  <si>
+    <t>Wb0115h23</t>
+  </si>
+  <si>
+    <t>Wb0115h24</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>elc_won-BGR</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>WaD,Wb0114h09,Wb0114h10,Wb0114h17,Wb0115h18,SaD,FaD,Wb0114h12,Wb0114h16,Wb0115h13,FaP,SaP,Wb0114h11,Wb0114h08,Wb0115h14,Wb0115h17,WaP,Wb0114h07,Wb0114h15,Wb0114h18,Wb0115h08,Wb0115h16,RaP,Wb0115h07,Wb0114h14,Wb0115h11,RaD,Wb0115h09,Wb0115h10,Wb0115h12,Wb0114h13,Wb0115h15</t>
+  </si>
+  <si>
+    <t>Wb0114h22,Wb0115h03,Wb0115h05,Wb0114h01,Wb0114h20,Wb0115h19,Wb0115h21,FaP,SaP,Wb0114h05,Wb0115h06,Wb0115h23,RaP,Wb0115h20,Wb0115h02,SaN,WaN,FaN,Wb0114h04,Wb0115h22,RaN,Wb0114h02,Wb0114h19,Wb0114h03,Wb0114h06,Wb0115h01,Wb0114h24,Wb0115h04,Wb0114h21,Wb0114h23,Wb0115h24,WaP</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>Fanan</t>
+  </si>
+  <si>
+    <t>Ranan</t>
+  </si>
+  <si>
+    <t>Sanan</t>
+  </si>
+  <si>
+    <t>Wanan</t>
+  </si>
+  <si>
+    <t>nanaD</t>
+  </si>
+  <si>
+    <t>nanaN</t>
+  </si>
+  <si>
+    <t>nanaP</t>
+  </si>
+  <si>
+    <t>nananan</t>
+  </si>
+  <si>
+    <t>nanb0114h01</t>
+  </si>
+  <si>
+    <t>nanb0114h02</t>
+  </si>
+  <si>
+    <t>nanb0114h03</t>
+  </si>
+  <si>
+    <t>nanb0114h04</t>
+  </si>
+  <si>
+    <t>nanb0114h05</t>
+  </si>
+  <si>
+    <t>nanb0114h06</t>
+  </si>
+  <si>
+    <t>nanb0114h07</t>
+  </si>
+  <si>
+    <t>nanb0114h08</t>
+  </si>
+  <si>
+    <t>nanb0114h09</t>
+  </si>
+  <si>
+    <t>nanb0114h10</t>
+  </si>
+  <si>
+    <t>nanb0114h11</t>
+  </si>
+  <si>
+    <t>nanb0114h12</t>
+  </si>
+  <si>
+    <t>nanb0114h13</t>
+  </si>
+  <si>
+    <t>nanb0114h14</t>
+  </si>
+  <si>
+    <t>nanb0114h15</t>
+  </si>
+  <si>
+    <t>nanb0114h16</t>
+  </si>
+  <si>
+    <t>nanb0114h17</t>
+  </si>
+  <si>
+    <t>nanb0114h18</t>
+  </si>
+  <si>
+    <t>nanb0114h19</t>
+  </si>
+  <si>
+    <t>nanb0114h20</t>
+  </si>
+  <si>
+    <t>nanb0114h21</t>
+  </si>
+  <si>
+    <t>nanb0114h22</t>
+  </si>
+  <si>
+    <t>nanb0114h23</t>
+  </si>
+  <si>
+    <t>nanb0114h24</t>
+  </si>
+  <si>
+    <t>nanb0115h01</t>
+  </si>
+  <si>
+    <t>nanb0115h02</t>
+  </si>
+  <si>
+    <t>nanb0115h03</t>
+  </si>
+  <si>
+    <t>nanb0115h04</t>
+  </si>
+  <si>
+    <t>nanb0115h05</t>
+  </si>
+  <si>
+    <t>nanb0115h06</t>
+  </si>
+  <si>
+    <t>nanb0115h07</t>
+  </si>
+  <si>
+    <t>nanb0115h08</t>
+  </si>
+  <si>
+    <t>nanb0115h09</t>
+  </si>
+  <si>
+    <t>nanb0115h10</t>
+  </si>
+  <si>
+    <t>nanb0115h11</t>
+  </si>
+  <si>
+    <t>nanb0115h12</t>
+  </si>
+  <si>
+    <t>nanb0115h13</t>
+  </si>
+  <si>
+    <t>nanb0115h14</t>
+  </si>
+  <si>
+    <t>nanb0115h15</t>
+  </si>
+  <si>
+    <t>nanb0115h16</t>
+  </si>
+  <si>
+    <t>nanb0115h17</t>
+  </si>
+  <si>
+    <t>nanb0115h18</t>
+  </si>
+  <si>
+    <t>nanb0115h19</t>
+  </si>
+  <si>
+    <t>nanb0115h20</t>
+  </si>
+  <si>
+    <t>nanb0115h21</t>
+  </si>
+  <si>
+    <t>nanb0115h22</t>
+  </si>
+  <si>
+    <t>nanb0115h23</t>
+  </si>
+  <si>
+    <t>nanb0115h24</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
   </si>
 </sst>
 </file>
@@ -744,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -760,13 +1309,13 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -780,7 +1329,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -795,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -803,21 +1352,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>Wb0114h22,Wb0115h03,Wb0115h05,Wb0114h01,Wb0114h20,Wb0115h19,Wb0115h21,FaP,SaP,Wb0114h05,Wb0115h06,Wb0115h23,RaP,Wb0115h20,Wb0115h02,SaN,WaN,FaN,Wb0114h04,Wb0115h22,RaN,Wb0114h02,Wb0114h19,Wb0114h03,Wb0114h06,Wb0115h01,Wb0114h24,Wb0115h04,Wb0114h21,Wb0114h23,Wb0115h24,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -835,21 +1384,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>WaD,Wb0114h09,Wb0114h10,Wb0114h17,Wb0115h18,SaD,FaD,Wb0114h12,Wb0114h16,Wb0115h13,FaP,SaP,Wb0114h11,Wb0114h08,Wb0115h14,Wb0115h17,WaP,Wb0114h07,Wb0114h15,Wb0114h18,Wb0115h08,Wb0115h16,RaP,Wb0115h07,Wb0114h14,Wb0115h11,RaD,Wb0115h09,Wb0115h10,Wb0115h12,Wb0114h13,Wb0115h15</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -861,26 +1410,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -908,553 +1457,6999 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670858AF-A466-43D0-B919-C07D8C46446A}">
+  <dimension ref="B2:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D43" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D44" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D46" t="s">
+        <v>121</v>
+      </c>
+      <c r="F46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D8614-6EC4-4805-B65A-C60EF7166249}">
+  <dimension ref="B2:K63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>0.20362014000000001</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4">
+        <v>9.8819952429934896E-2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>2.4756499999999998E-3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5">
+        <v>0.1022388961049744</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6">
+        <v>2.7494790000000002E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6">
+        <v>2.127734687336123E-2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>0.22797218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>0.13301365361580961</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8">
+        <v>1.08144E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8">
+        <v>0.11239756414363372</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9">
+        <v>3.3934199999999998E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9">
+        <v>2.2704212142166443E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10">
+        <v>0.27991305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>0.10351695821593197</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>2.1341160000000001E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11">
+        <v>7.7223535365449569E-2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12">
+        <v>4.4136019999999998E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12">
+        <v>1.7957929184725756E-2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13">
+        <v>0.13225816000000001</v>
+      </c>
+      <c r="D13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13">
+        <v>0.14042468919212905</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14">
+        <v>0.13586403063373834</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>1.517694E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15">
+        <v>2.7446149693825889E-2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16">
+        <v>6.1861304633862443E-5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17">
+        <v>6.1038106644624752E-5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18">
+        <v>5.7853275079705118E-5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19">
+        <v>6.4816720365715833E-5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I20">
+        <v>8.4964828528533604E-5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21">
+        <v>1.1862148074425196E-4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" t="s">
+        <v>151</v>
+      </c>
+      <c r="I22">
+        <v>1.6261534049695516E-4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23">
+        <v>1.9098193350314599E-4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24">
+        <v>2.2065754626260001E-4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25">
+        <v>2.4509708000860001E-4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26">
+        <v>1.9259999999999999E-5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>155</v>
+      </c>
+      <c r="I26">
+        <v>2.0849850711019999E-4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27">
+        <v>6.3299999999999994E-5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27">
+        <v>1.6876908284273206E-4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28">
+        <v>8.3239999999999996E-5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28">
+        <v>1.3458612371586174E-4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29">
+        <v>1.0900000000000001E-4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" t="s">
+        <v>158</v>
+      </c>
+      <c r="I29">
+        <v>1.0858116428535281E-4</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30">
+        <v>5.5279999999999999E-5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30">
+        <v>1.4354683625444914E-4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31">
+        <v>4.0080000000000003E-5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31">
+        <v>1.9296570570671883E-4</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32">
+        <v>1.198E-5</v>
+      </c>
+      <c r="D32" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32">
+        <v>2.3721597139039999E-4</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+      <c r="K32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33">
+        <v>1.116E-5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33">
+        <v>2.7347716806380002E-4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I34">
+        <v>2.750021086014E-4</v>
+      </c>
+      <c r="J34" t="s">
+        <v>132</v>
+      </c>
+      <c r="K34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35">
+        <v>2.6955010880379997E-4</v>
+      </c>
+      <c r="J35" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>165</v>
+      </c>
+      <c r="I36">
+        <v>2.5099441642339998E-4</v>
+      </c>
+      <c r="J36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37">
+        <v>2.384845059968E-4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" t="s">
+        <v>167</v>
+      </c>
+      <c r="I38">
+        <v>2.5150722828559999E-4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>132</v>
+      </c>
+      <c r="K38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" t="s">
+        <v>133</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39">
+        <v>2.5655437661299999E-4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>132</v>
+      </c>
+      <c r="K39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40">
+        <v>2.549349707326E-4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I41">
+        <v>2.6438150503520002E-4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="H42" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42">
+        <v>2.5369342622420002E-4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43">
+        <v>2.629645248898E-4</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+      <c r="K43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
+      <c r="I44">
+        <v>2.7133145527220002E-4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>133</v>
+      </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
+      <c r="I45">
+        <v>2.8331505878780001E-4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>132</v>
+      </c>
+      <c r="K45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46">
+        <v>2.8230293011239998E-4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>132</v>
+      </c>
+      <c r="K46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
+      <c r="I47">
+        <v>2.4825492147559998E-4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>132</v>
+      </c>
+      <c r="K47" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>133</v>
+      </c>
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48">
+        <v>2.3718898129240001E-4</v>
+      </c>
+      <c r="J48" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49">
+        <v>2.511293669134E-4</v>
+      </c>
+      <c r="J49" t="s">
+        <v>132</v>
+      </c>
+      <c r="K49" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50">
+        <v>2.2374E-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>133</v>
+      </c>
+      <c r="H50" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50">
+        <v>2.4421990182339997E-4</v>
+      </c>
+      <c r="J50" t="s">
+        <v>132</v>
+      </c>
+      <c r="K50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51">
+        <v>1.0274E-4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51">
+        <v>2.4614969383100001E-4</v>
+      </c>
+      <c r="J51" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52">
+        <v>6.1959999999999996E-5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>133</v>
+      </c>
+      <c r="H52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52">
+        <v>2.654746040046E-4</v>
+      </c>
+      <c r="J52" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53">
+        <v>8.7059999999999997E-5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" t="s">
+        <v>133</v>
+      </c>
+      <c r="H53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53">
+        <v>3.4510888817659998E-4</v>
+      </c>
+      <c r="J53" t="s">
+        <v>132</v>
+      </c>
+      <c r="K53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54">
+        <v>1.8443999999999999E-4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54">
+        <v>4.4010053811500001E-4</v>
+      </c>
+      <c r="J54" t="s">
+        <v>132</v>
+      </c>
+      <c r="K54" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55">
+        <v>1.0662000000000001E-4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" t="s">
+        <v>133</v>
+      </c>
+      <c r="H55" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55">
+        <v>5.3302744555579998E-4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56">
+        <v>4.7016000000000001E-4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" t="s">
+        <v>185</v>
+      </c>
+      <c r="I56">
+        <v>6.0613012601000004E-4</v>
+      </c>
+      <c r="J56" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57">
+        <v>9.6119999999999995E-5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>186</v>
+      </c>
+      <c r="I57">
+        <v>6.5614277761839998E-4</v>
+      </c>
+      <c r="J57" t="s">
+        <v>132</v>
+      </c>
+      <c r="K57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58">
+        <v>6.8002901435520004E-4</v>
+      </c>
+      <c r="J58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+      <c r="H59" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59">
+        <v>6.9032573674519999E-4</v>
+      </c>
+      <c r="J59" t="s">
+        <v>132</v>
+      </c>
+      <c r="K59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>133</v>
+      </c>
+      <c r="H60" t="s">
+        <v>189</v>
+      </c>
+      <c r="I60">
+        <v>6.6897656922100003E-4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61">
+        <v>6.4461800576899998E-4</v>
+      </c>
+      <c r="J61" t="s">
+        <v>132</v>
+      </c>
+      <c r="K61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>191</v>
+      </c>
+      <c r="I62">
+        <v>6.5453686678680005E-4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>132</v>
+      </c>
+      <c r="K62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" t="s">
+        <v>133</v>
+      </c>
+      <c r="H63" t="s">
+        <v>192</v>
+      </c>
+      <c r="I63">
+        <v>6.6758657917359999E-4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+      <c r="K63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4774AA-F9B7-4CB0-B9F3-1A92CB20F5CF}">
+  <dimension ref="B2:O235"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C4">
+        <v>0.16087081189037786</v>
+      </c>
+      <c r="D4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>3.0450808034254869E-2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4">
+        <v>0.15073715204784954</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0.11426940639269406</v>
+      </c>
+      <c r="C5">
+        <v>5.2547713165767528E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5">
+        <v>2.3978684178542757E-2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>134</v>
+      </c>
+      <c r="O5">
+        <v>0.27331331863462793</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>2.0776255707762557E-2</v>
+      </c>
+      <c r="C6">
+        <v>3.5896543437005365E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <v>5.655671935644751E-3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O6">
+        <v>0.12823124109892037</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C7">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7">
+        <v>6.008516414844238E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7">
+        <v>0.23353941933261613</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C8">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" t="s">
+        <v>136</v>
+      </c>
+      <c r="J8">
+        <v>3.0952977775780797E-2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8">
+        <v>0.14870297606054006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C9">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
+      </c>
+      <c r="J9">
+        <v>2.4194211415692626E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9">
+        <v>0.2866265588387209</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C10">
+        <v>0.16263862301005233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10">
+        <v>5.7212595974776483E-3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O10">
+        <v>0.13668704155105349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>0.11552511415525114</v>
+      </c>
+      <c r="C11">
+        <v>5.3125160563193538E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11">
+        <v>6.0868448788951077E-2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>202</v>
+      </c>
+      <c r="O11">
+        <v>0.23571453587767732</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2.1004566210045664E-2</v>
+      </c>
+      <c r="C12">
+        <v>3.6291010947302131E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12">
+        <v>2.9605941273687639E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12">
+        <v>0.10040299219575366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>0.11050228310502283</v>
+      </c>
+      <c r="C13">
+        <v>0.15556737853135438</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13">
+        <v>2.2421196852810514E-2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13">
+        <v>0.27182589319665151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <v>0.11050228310502283</v>
+      </c>
+      <c r="C14">
+        <v>5.0815370973489475E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H14" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14">
+        <v>5.3042351067855761E-3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14">
+        <v>7.2899629572647617E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <v>2.0091324200913242E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.4713140906115082E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15">
+        <v>5.7331373233283731E-2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>203</v>
+      </c>
+      <c r="O15">
+        <v>0.19339637573758539</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C16">
+        <v>4.3093089360150507E-5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16">
+        <v>3.5404624636412148E-2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16">
+        <v>9.0640504323126203E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C17">
+        <v>2.9833677249334962E-5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
+      </c>
+      <c r="H17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17">
+        <v>2.8024845015652739E-2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17">
+        <v>0.22720526282919451</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C18">
+        <v>3.3148530277038847E-5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>196</v>
+      </c>
+      <c r="H18" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18">
+        <v>6.5645448948847933E-3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>6.6688708194282187E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C19">
+        <v>2.9170706643794186E-5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H19" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J19">
+        <v>6.9994014546949687E-2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19">
+        <v>0.17226219167395485</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C20">
+        <v>4.2430118754609728E-5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="H20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20">
+        <v>5.6016142944631772E-5</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C21">
+        <v>1.1535688536409519E-4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21">
+        <v>5.612534008915599E-5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C22">
+        <v>3.3811500882579627E-4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22">
+        <v>5.6398332950466511E-5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C23">
+        <v>3.8120809818594675E-4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>148</v>
+      </c>
+      <c r="J23">
+        <v>5.8818869654086555E-5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C24">
+        <v>2.9170706643794189E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24">
+        <v>6.9192598383886736E-5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" t="s">
+        <v>149</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C25">
+        <v>2.8905518401577877E-4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <v>7.6945595645105819E-5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N25" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C26">
+        <v>2.817625073548302E-4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J26">
+        <v>8.0876692847977466E-5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C27">
+        <v>2.8109953674928942E-4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27">
+        <v>8.2168859058180647E-5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N27" t="s">
+        <v>152</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C28">
+        <v>2.8507736038253404E-4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" t="s">
+        <v>153</v>
+      </c>
+      <c r="J28">
+        <v>8.0894892372064835E-5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="N28" t="s">
+        <v>153</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C29">
+        <v>2.9767380188780885E-4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29">
+        <v>8.040350522170587E-5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" t="s">
+        <v>154</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C30">
+        <v>3.0098865491551274E-4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30">
+        <v>7.9493529017337443E-5</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N30" t="s">
+        <v>155</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C31">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>160</v>
+      </c>
+      <c r="E31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J31">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>156</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C32">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C33">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" t="s">
+        <v>158</v>
+      </c>
+      <c r="J33">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C34">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>159</v>
+      </c>
+      <c r="J34">
+        <v>8.0749296179365886E-5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C35">
+        <v>3.1159618460416515E-4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C36">
+        <v>2.187802998284564E-4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C37">
+        <v>1.5911294532978647E-4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37">
+        <v>8.094949094432694E-5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C38">
+        <v>1.1270500294193207E-4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38">
+        <v>7.9366132348725863E-5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>163</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C39">
+        <v>5.9667354498669924E-5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39">
+        <v>7.4743453230534198E-5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>164</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C40">
+        <v>4.3093089360150507E-5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J40">
+        <v>7.1158146985322567E-5</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>165</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C41">
+        <v>2.9833677249334962E-5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41">
+        <v>6.7008655493402497E-5</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41" t="s">
+        <v>166</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C42">
+        <v>3.3148530277038847E-5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42">
+        <v>5.670772485995179E-5</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C43">
+        <v>2.9170706643794186E-5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" t="s">
+        <v>168</v>
+      </c>
+      <c r="J43">
+        <v>5.4851373403040178E-5</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>168</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C44">
+        <v>4.2430118754609728E-5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" t="s">
+        <v>169</v>
+      </c>
+      <c r="J44">
+        <v>5.3741202433710683E-5</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44" t="s">
+        <v>169</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C45">
+        <v>1.1535688536409519E-4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45">
+        <v>5.4032394819108573E-5</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45" t="s">
+        <v>170</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C46">
+        <v>3.3811500882579627E-4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" t="s">
+        <v>171</v>
+      </c>
+      <c r="J46">
+        <v>5.3886798626409631E-5</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46" t="s">
+        <v>171</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C47">
+        <v>3.8120809818594675E-4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" t="s">
+        <v>172</v>
+      </c>
+      <c r="J47">
+        <v>5.6889720100825476E-5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47" t="s">
+        <v>172</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C48">
+        <v>2.9170706643794189E-4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48">
+        <v>6.7827634077334082E-5</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48" t="s">
+        <v>173</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C49">
+        <v>2.8905518401577877E-4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49">
+        <v>7.5471434194028953E-5</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" t="s">
+        <v>174</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B50">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C50">
+        <v>2.817625073548302E-4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="E50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50">
+        <v>7.9548127589599548E-5</v>
+      </c>
+      <c r="M50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" t="s">
+        <v>175</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B51">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C51">
+        <v>2.8109953674928942E-4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+      <c r="J51">
+        <v>8.0694697607103781E-5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" t="s">
+        <v>176</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B52">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C52">
+        <v>2.8507736038253404E-4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52">
+        <v>7.927513472828902E-5</v>
+      </c>
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B53">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C53">
+        <v>2.9767380188780885E-4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53">
+        <v>7.8583552812969015E-5</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53" t="s">
+        <v>178</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B54">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C54">
+        <v>3.0098865491551274E-4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" t="s">
+        <v>179</v>
+      </c>
+      <c r="J54">
+        <v>7.7637177560425837E-5</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" t="s">
+        <v>179</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B55">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C55">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" t="s">
+        <v>180</v>
+      </c>
+      <c r="J55">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55" t="s">
+        <v>180</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C56">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" t="s">
+        <v>181</v>
+      </c>
+      <c r="J56">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56" t="s">
+        <v>181</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C57">
+        <v>4.4419030571232054E-4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57" t="s">
+        <v>182</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C58">
+        <v>3.4474471488120406E-4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>183</v>
+      </c>
+      <c r="J58">
+        <v>7.8638151385231094E-5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58" t="s">
+        <v>183</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C59">
+        <v>3.1159618460416515E-4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" t="s">
+        <v>184</v>
+      </c>
+      <c r="J59">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59" t="s">
+        <v>184</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B60">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C60">
+        <v>2.187802998284564E-4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" t="s">
+        <v>185</v>
+      </c>
+      <c r="J60">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60" t="s">
+        <v>185</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B61">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C61">
+        <v>1.5911294532978647E-4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" t="s">
+        <v>200</v>
+      </c>
+      <c r="I61" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61">
+        <v>7.9438930445075337E-5</v>
+      </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61" t="s">
+        <v>186</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B62">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C62">
+        <v>1.1270500294193207E-4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" t="s">
+        <v>187</v>
+      </c>
+      <c r="J62">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" t="s">
+        <v>187</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B63">
+        <v>2.2831050228310502E-4</v>
+      </c>
+      <c r="C63">
+        <v>5.9667354498669924E-5</v>
+      </c>
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" t="s">
+        <v>188</v>
+      </c>
+      <c r="J63">
+        <v>7.3596883213029966E-5</v>
+      </c>
+      <c r="M63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" t="s">
+        <v>188</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H64" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64">
+        <v>6.9738584106507806E-5</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64" t="s">
+        <v>189</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H65" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" t="s">
+        <v>190</v>
+      </c>
+      <c r="J65">
+        <v>6.5316099753277195E-5</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H66" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" t="s">
+        <v>191</v>
+      </c>
+      <c r="J66">
+        <v>5.4341786728593852E-5</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66" t="s">
+        <v>191</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H67" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" t="s">
+        <v>192</v>
+      </c>
+      <c r="J67">
+        <v>5.1338865254178001E-5</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67" t="s">
+        <v>192</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H68" t="s">
+        <v>200</v>
+      </c>
+      <c r="I68" t="s">
+        <v>205</v>
+      </c>
+      <c r="J68">
+        <v>0.12641435172013546</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68" t="s">
+        <v>205</v>
+      </c>
+      <c r="O68">
+        <v>0.20756324344501609</v>
+      </c>
+    </row>
+    <row r="69" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H69" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" t="s">
+        <v>206</v>
+      </c>
+      <c r="J69">
+        <v>9.8618937462698647E-2</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69" t="s">
+        <v>206</v>
+      </c>
+      <c r="O69">
+        <v>0.36149700011660801</v>
+      </c>
+    </row>
+    <row r="70" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" t="s">
+        <v>207</v>
+      </c>
+      <c r="J70">
+        <v>2.3245711534792771E-2</v>
+      </c>
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70" t="s">
+        <v>207</v>
+      </c>
+      <c r="O70">
+        <v>0.18876529321948277</v>
+      </c>
+    </row>
+    <row r="71" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H71" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71">
+        <v>0.24827900071762687</v>
+      </c>
+      <c r="M71" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71" t="s">
+        <v>208</v>
+      </c>
+      <c r="O71">
+        <v>0.29978740397381842</v>
+      </c>
+    </row>
+    <row r="72" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" t="s">
+        <v>209</v>
+      </c>
+      <c r="J72">
+        <v>5.6016142944631772E-5</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>200</v>
+      </c>
+      <c r="I73" t="s">
+        <v>210</v>
+      </c>
+      <c r="J73">
+        <v>5.612534008915599E-5</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73" t="s">
+        <v>210</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>200</v>
+      </c>
+      <c r="I74" t="s">
+        <v>211</v>
+      </c>
+      <c r="J74">
+        <v>5.6398332950466511E-5</v>
+      </c>
+      <c r="M74" t="s">
+        <v>14</v>
+      </c>
+      <c r="N74" t="s">
+        <v>211</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H75" t="s">
+        <v>200</v>
+      </c>
+      <c r="I75" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75">
+        <v>5.8818869654086555E-5</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" t="s">
+        <v>212</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H76" t="s">
+        <v>200</v>
+      </c>
+      <c r="I76" t="s">
+        <v>213</v>
+      </c>
+      <c r="J76">
+        <v>6.9192598383886736E-5</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76" t="s">
+        <v>213</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H77" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" t="s">
+        <v>214</v>
+      </c>
+      <c r="J77">
+        <v>7.6945595645105819E-5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77" t="s">
+        <v>214</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H78" t="s">
+        <v>200</v>
+      </c>
+      <c r="I78" t="s">
+        <v>215</v>
+      </c>
+      <c r="J78">
+        <v>8.0876692847977466E-5</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78" t="s">
+        <v>215</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H79" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" t="s">
+        <v>216</v>
+      </c>
+      <c r="J79">
+        <v>8.2168859058180647E-5</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79" t="s">
+        <v>216</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H80" t="s">
+        <v>200</v>
+      </c>
+      <c r="I80" t="s">
+        <v>217</v>
+      </c>
+      <c r="J80">
+        <v>8.0894892372064835E-5</v>
+      </c>
+      <c r="M80" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80" t="s">
+        <v>217</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H81" t="s">
+        <v>200</v>
+      </c>
+      <c r="I81" t="s">
+        <v>218</v>
+      </c>
+      <c r="J81">
+        <v>8.040350522170587E-5</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81" t="s">
+        <v>218</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H82" t="s">
+        <v>200</v>
+      </c>
+      <c r="I82" t="s">
+        <v>219</v>
+      </c>
+      <c r="J82">
+        <v>7.9493529017337443E-5</v>
+      </c>
+      <c r="M82" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82" t="s">
+        <v>219</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H83" t="s">
+        <v>200</v>
+      </c>
+      <c r="I83" t="s">
+        <v>220</v>
+      </c>
+      <c r="J83">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H84" t="s">
+        <v>200</v>
+      </c>
+      <c r="I84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J84">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84" t="s">
+        <v>221</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H85" t="s">
+        <v>200</v>
+      </c>
+      <c r="I85" t="s">
+        <v>222</v>
+      </c>
+      <c r="J85">
+        <v>7.9511728541424811E-5</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85" t="s">
+        <v>222</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H86" t="s">
+        <v>200</v>
+      </c>
+      <c r="I86" t="s">
+        <v>223</v>
+      </c>
+      <c r="J86">
+        <v>8.0749296179365886E-5</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86" t="s">
+        <v>223</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H87" t="s">
+        <v>200</v>
+      </c>
+      <c r="I87" t="s">
+        <v>224</v>
+      </c>
+      <c r="J87">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87" t="s">
+        <v>224</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H88" t="s">
+        <v>200</v>
+      </c>
+      <c r="I88" t="s">
+        <v>225</v>
+      </c>
+      <c r="J88">
+        <v>8.1131486185200639E-5</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88" t="s">
+        <v>225</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H89" t="s">
+        <v>200</v>
+      </c>
+      <c r="I89" t="s">
+        <v>226</v>
+      </c>
+      <c r="J89">
+        <v>8.094949094432694E-5</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89" t="s">
+        <v>226</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H90" t="s">
+        <v>200</v>
+      </c>
+      <c r="I90" t="s">
+        <v>227</v>
+      </c>
+      <c r="J90">
+        <v>7.9366132348725863E-5</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90" t="s">
+        <v>227</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H91" t="s">
+        <v>200</v>
+      </c>
+      <c r="I91" t="s">
+        <v>228</v>
+      </c>
+      <c r="J91">
+        <v>7.4743453230534198E-5</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91" t="s">
+        <v>228</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H92" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" t="s">
+        <v>229</v>
+      </c>
+      <c r="J92">
+        <v>7.1158146985322567E-5</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92" t="s">
+        <v>229</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H93" t="s">
+        <v>200</v>
+      </c>
+      <c r="I93" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93">
+        <v>6.7008655493402497E-5</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93" t="s">
+        <v>230</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H94" t="s">
+        <v>200</v>
+      </c>
+      <c r="I94" t="s">
+        <v>231</v>
+      </c>
+      <c r="J94">
+        <v>5.670772485995179E-5</v>
+      </c>
+      <c r="M94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94" t="s">
+        <v>231</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H95" t="s">
+        <v>200</v>
+      </c>
+      <c r="I95" t="s">
+        <v>232</v>
+      </c>
+      <c r="J95">
+        <v>5.4851373403040178E-5</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95" t="s">
+        <v>232</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H96" t="s">
+        <v>200</v>
+      </c>
+      <c r="I96" t="s">
+        <v>233</v>
+      </c>
+      <c r="J96">
+        <v>5.3741202433710683E-5</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96" t="s">
+        <v>233</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H97" t="s">
+        <v>200</v>
+      </c>
+      <c r="I97" t="s">
+        <v>234</v>
+      </c>
+      <c r="J97">
+        <v>5.4032394819108573E-5</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" t="s">
+        <v>234</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H98" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" t="s">
+        <v>235</v>
+      </c>
+      <c r="J98">
+        <v>5.3886798626409631E-5</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98" t="s">
+        <v>235</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H99" t="s">
+        <v>200</v>
+      </c>
+      <c r="I99" t="s">
+        <v>236</v>
+      </c>
+      <c r="J99">
+        <v>5.6889720100825476E-5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" t="s">
+        <v>236</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H100" t="s">
+        <v>200</v>
+      </c>
+      <c r="I100" t="s">
+        <v>237</v>
+      </c>
+      <c r="J100">
+        <v>6.7827634077334082E-5</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100" t="s">
+        <v>237</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>200</v>
+      </c>
+      <c r="I101" t="s">
+        <v>238</v>
+      </c>
+      <c r="J101">
+        <v>7.5471434194028953E-5</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101" t="s">
+        <v>238</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H102" t="s">
+        <v>200</v>
+      </c>
+      <c r="I102" t="s">
+        <v>239</v>
+      </c>
+      <c r="J102">
+        <v>7.9548127589599548E-5</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102" t="s">
+        <v>239</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H103" t="s">
+        <v>200</v>
+      </c>
+      <c r="I103" t="s">
+        <v>240</v>
+      </c>
+      <c r="J103">
+        <v>8.0694697607103781E-5</v>
+      </c>
+      <c r="M103" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103" t="s">
+        <v>240</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H104" t="s">
+        <v>200</v>
+      </c>
+      <c r="I104" t="s">
+        <v>241</v>
+      </c>
+      <c r="J104">
+        <v>7.927513472828902E-5</v>
+      </c>
+      <c r="M104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104" t="s">
+        <v>241</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H105" t="s">
+        <v>200</v>
+      </c>
+      <c r="I105" t="s">
+        <v>242</v>
+      </c>
+      <c r="J105">
+        <v>7.8583552812969015E-5</v>
+      </c>
+      <c r="M105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N105" t="s">
+        <v>242</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H106" t="s">
+        <v>200</v>
+      </c>
+      <c r="I106" t="s">
+        <v>243</v>
+      </c>
+      <c r="J106">
+        <v>7.7637177560425837E-5</v>
+      </c>
+      <c r="M106" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106" t="s">
+        <v>243</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H107" t="s">
+        <v>200</v>
+      </c>
+      <c r="I107" t="s">
+        <v>244</v>
+      </c>
+      <c r="J107">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M107" t="s">
+        <v>14</v>
+      </c>
+      <c r="N107" t="s">
+        <v>244</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H108" t="s">
+        <v>200</v>
+      </c>
+      <c r="I108" t="s">
+        <v>245</v>
+      </c>
+      <c r="J108">
+        <v>7.6854598024668976E-5</v>
+      </c>
+      <c r="M108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108" t="s">
+        <v>245</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H109" t="s">
+        <v>200</v>
+      </c>
+      <c r="I109" t="s">
+        <v>246</v>
+      </c>
+      <c r="J109">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109" t="s">
+        <v>246</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H110" t="s">
+        <v>200</v>
+      </c>
+      <c r="I110" t="s">
+        <v>247</v>
+      </c>
+      <c r="J110">
+        <v>7.8638151385231094E-5</v>
+      </c>
+      <c r="M110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" t="s">
+        <v>247</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H111" t="s">
+        <v>200</v>
+      </c>
+      <c r="I111" t="s">
+        <v>248</v>
+      </c>
+      <c r="J111">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M111" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111" t="s">
+        <v>248</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H112" t="s">
+        <v>200</v>
+      </c>
+      <c r="I112" t="s">
+        <v>249</v>
+      </c>
+      <c r="J112">
+        <v>7.9329733300551112E-5</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" t="s">
+        <v>249</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H113" t="s">
+        <v>200</v>
+      </c>
+      <c r="I113" t="s">
+        <v>250</v>
+      </c>
+      <c r="J113">
+        <v>7.9438930445075337E-5</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113" t="s">
+        <v>250</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H114" t="s">
+        <v>200</v>
+      </c>
+      <c r="I114" t="s">
+        <v>251</v>
+      </c>
+      <c r="J114">
+        <v>7.7982968518085826E-5</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
+      <c r="N114" t="s">
+        <v>251</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H115" t="s">
+        <v>200</v>
+      </c>
+      <c r="I115" t="s">
+        <v>252</v>
+      </c>
+      <c r="J115">
+        <v>7.3596883213029966E-5</v>
+      </c>
+      <c r="M115" t="s">
+        <v>14</v>
+      </c>
+      <c r="N115" t="s">
+        <v>252</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H116" t="s">
+        <v>200</v>
+      </c>
+      <c r="I116" t="s">
+        <v>253</v>
+      </c>
+      <c r="J116">
+        <v>6.9738584106507806E-5</v>
+      </c>
+      <c r="M116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116" t="s">
+        <v>253</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H117" t="s">
+        <v>200</v>
+      </c>
+      <c r="I117" t="s">
+        <v>254</v>
+      </c>
+      <c r="J117">
+        <v>6.5316099753277195E-5</v>
+      </c>
+      <c r="M117" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117" t="s">
+        <v>254</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H118" t="s">
+        <v>200</v>
+      </c>
+      <c r="I118" t="s">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>5.4341786728593852E-5</v>
+      </c>
+      <c r="M118" t="s">
+        <v>14</v>
+      </c>
+      <c r="N118" t="s">
+        <v>255</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H119" t="s">
+        <v>200</v>
+      </c>
+      <c r="I119" t="s">
+        <v>256</v>
+      </c>
+      <c r="J119">
+        <v>5.1338865254178001E-5</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119" t="s">
+        <v>256</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H120" t="s">
+        <v>257</v>
+      </c>
+      <c r="I120" t="s">
+        <v>131</v>
+      </c>
+      <c r="J120">
+        <v>2.8761095025269384E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H121" t="s">
+        <v>257</v>
+      </c>
+      <c r="I121" t="s">
+        <v>134</v>
+      </c>
+      <c r="J121">
+        <v>2.8315180510329701E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H122" t="s">
+        <v>257</v>
+      </c>
+      <c r="I122" t="s">
+        <v>135</v>
+      </c>
+      <c r="J122">
+        <v>5.2374999511148601E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H123" t="s">
+        <v>257</v>
+      </c>
+      <c r="I123" t="s">
+        <v>201</v>
+      </c>
+      <c r="J123">
+        <v>6.2313775486713949E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H124" t="s">
+        <v>257</v>
+      </c>
+      <c r="I124" t="s">
+        <v>136</v>
+      </c>
+      <c r="J124">
+        <v>2.9085186869384536E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H125" t="s">
+        <v>257</v>
+      </c>
+      <c r="I125" t="s">
+        <v>137</v>
+      </c>
+      <c r="J125">
+        <v>2.8619523342196401E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H126" t="s">
+        <v>257</v>
+      </c>
+      <c r="I126" t="s">
+        <v>138</v>
+      </c>
+      <c r="J126">
+        <v>5.2946539724265471E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H127" t="s">
+        <v>257</v>
+      </c>
+      <c r="I127" t="s">
+        <v>202</v>
+      </c>
+      <c r="J127">
+        <v>6.2999364184007478E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="8:15" x14ac:dyDescent="0.45">
+      <c r="H128" t="s">
+        <v>257</v>
+      </c>
+      <c r="I128" t="s">
+        <v>139</v>
+      </c>
+      <c r="J128">
+        <v>2.9093240822218931E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H129" t="s">
+        <v>257</v>
+      </c>
+      <c r="I129" t="s">
+        <v>140</v>
+      </c>
+      <c r="J129">
+        <v>2.8598228381971291E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H130" t="s">
+        <v>257</v>
+      </c>
+      <c r="I130" t="s">
+        <v>141</v>
+      </c>
+      <c r="J130">
+        <v>5.2842604277780307E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H131" t="s">
+        <v>257</v>
+      </c>
+      <c r="I131" t="s">
+        <v>203</v>
+      </c>
+      <c r="J131">
+        <v>6.297572963196825E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H132" t="s">
+        <v>257</v>
+      </c>
+      <c r="I132" t="s">
+        <v>142</v>
+      </c>
+      <c r="J132">
+        <v>2.7882463660111063E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H133" t="s">
+        <v>257</v>
+      </c>
+      <c r="I133" t="s">
+        <v>143</v>
+      </c>
+      <c r="J133">
+        <v>2.7374013741148468E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H134" t="s">
+        <v>257</v>
+      </c>
+      <c r="I134" t="s">
+        <v>144</v>
+      </c>
+      <c r="J134">
+        <v>5.0783123103619781E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H135" t="s">
+        <v>257</v>
+      </c>
+      <c r="I135" t="s">
+        <v>204</v>
+      </c>
+      <c r="J135">
+        <v>6.0334789711621505E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H136" t="s">
+        <v>257</v>
+      </c>
+      <c r="I136" t="s">
+        <v>145</v>
+      </c>
+      <c r="J136">
+        <v>5.6266387141892538E-5</v>
+      </c>
+    </row>
+    <row r="137" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H137" t="s">
+        <v>257</v>
+      </c>
+      <c r="I137" t="s">
+        <v>146</v>
+      </c>
+      <c r="J137">
+        <v>5.6273910575130042E-5</v>
+      </c>
+    </row>
+    <row r="138" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H138" t="s">
+        <v>257</v>
+      </c>
+      <c r="I138" t="s">
+        <v>147</v>
+      </c>
+      <c r="J138">
+        <v>5.6292719158223806E-5</v>
+      </c>
+    </row>
+    <row r="139" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H139" t="s">
+        <v>257</v>
+      </c>
+      <c r="I139" t="s">
+        <v>148</v>
+      </c>
+      <c r="J139">
+        <v>5.64594885949885E-5</v>
+      </c>
+    </row>
+    <row r="140" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H140" t="s">
+        <v>257</v>
+      </c>
+      <c r="I140" t="s">
+        <v>149</v>
+      </c>
+      <c r="J140">
+        <v>5.7174214752551454E-5</v>
+      </c>
+    </row>
+    <row r="141" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H141" t="s">
+        <v>257</v>
+      </c>
+      <c r="I141" t="s">
+        <v>150</v>
+      </c>
+      <c r="J141">
+        <v>5.77083785124143E-5</v>
+      </c>
+    </row>
+    <row r="142" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H142" t="s">
+        <v>257</v>
+      </c>
+      <c r="I142" t="s">
+        <v>151</v>
+      </c>
+      <c r="J142">
+        <v>5.7979222108964476E-5</v>
+      </c>
+    </row>
+    <row r="143" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H143" t="s">
+        <v>257</v>
+      </c>
+      <c r="I143" t="s">
+        <v>152</v>
+      </c>
+      <c r="J143">
+        <v>5.8068249402274949E-5</v>
+      </c>
+    </row>
+    <row r="144" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H144" t="s">
+        <v>257</v>
+      </c>
+      <c r="I144" t="s">
+        <v>153</v>
+      </c>
+      <c r="J144">
+        <v>5.7980476014504063E-5</v>
+      </c>
+    </row>
+    <row r="145" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H145" t="s">
+        <v>257</v>
+      </c>
+      <c r="I145" t="s">
+        <v>154</v>
+      </c>
+      <c r="J145">
+        <v>5.7946620564935285E-5</v>
+      </c>
+    </row>
+    <row r="146" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H146" t="s">
+        <v>257</v>
+      </c>
+      <c r="I146" t="s">
+        <v>155</v>
+      </c>
+      <c r="J146">
+        <v>5.7883925287956079E-5</v>
+      </c>
+    </row>
+    <row r="147" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H147" t="s">
+        <v>257</v>
+      </c>
+      <c r="I147" t="s">
+        <v>156</v>
+      </c>
+      <c r="J147">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="148" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H148" t="s">
+        <v>257</v>
+      </c>
+      <c r="I148" t="s">
+        <v>157</v>
+      </c>
+      <c r="J148">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H149" t="s">
+        <v>257</v>
+      </c>
+      <c r="I149" t="s">
+        <v>158</v>
+      </c>
+      <c r="J149">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="150" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H150" t="s">
+        <v>257</v>
+      </c>
+      <c r="I150" t="s">
+        <v>159</v>
+      </c>
+      <c r="J150">
+        <v>5.7970444770187384E-5</v>
+      </c>
+    </row>
+    <row r="151" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H151" t="s">
+        <v>257</v>
+      </c>
+      <c r="I151" t="s">
+        <v>160</v>
+      </c>
+      <c r="J151">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="152" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H152" t="s">
+        <v>257</v>
+      </c>
+      <c r="I152" t="s">
+        <v>161</v>
+      </c>
+      <c r="J152">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="153" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H153" t="s">
+        <v>257</v>
+      </c>
+      <c r="I153" t="s">
+        <v>162</v>
+      </c>
+      <c r="J153">
+        <v>5.7984237731122811E-5</v>
+      </c>
+    </row>
+    <row r="154" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H154" t="s">
+        <v>257</v>
+      </c>
+      <c r="I154" t="s">
+        <v>163</v>
+      </c>
+      <c r="J154">
+        <v>5.7875147949178988E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H155" t="s">
+        <v>257</v>
+      </c>
+      <c r="I155" t="s">
+        <v>164</v>
+      </c>
+      <c r="J155">
+        <v>5.7556655942124621E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H156" t="s">
+        <v>257</v>
+      </c>
+      <c r="I156" t="s">
+        <v>165</v>
+      </c>
+      <c r="J156">
+        <v>5.7309636550826545E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H157" t="s">
+        <v>257</v>
+      </c>
+      <c r="I157" t="s">
+        <v>166</v>
+      </c>
+      <c r="J157">
+        <v>5.7023746087801355E-5</v>
+      </c>
+    </row>
+    <row r="158" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H158" t="s">
+        <v>257</v>
+      </c>
+      <c r="I158" t="s">
+        <v>167</v>
+      </c>
+      <c r="J158">
+        <v>5.631403555239673E-5</v>
+      </c>
+    </row>
+    <row r="159" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H159" t="s">
+        <v>257</v>
+      </c>
+      <c r="I159" t="s">
+        <v>168</v>
+      </c>
+      <c r="J159">
+        <v>5.618613718735915E-5</v>
+      </c>
+    </row>
+    <row r="160" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H160" t="s">
+        <v>257</v>
+      </c>
+      <c r="I160" t="s">
+        <v>169</v>
+      </c>
+      <c r="J160">
+        <v>5.610964894944453E-5</v>
+      </c>
+    </row>
+    <row r="161" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H161" t="s">
+        <v>257</v>
+      </c>
+      <c r="I161" t="s">
+        <v>170</v>
+      </c>
+      <c r="J161">
+        <v>5.6129711438077867E-5</v>
+      </c>
+    </row>
+    <row r="162" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H162" t="s">
+        <v>257</v>
+      </c>
+      <c r="I162" t="s">
+        <v>171</v>
+      </c>
+      <c r="J162">
+        <v>5.6119680193761195E-5</v>
+      </c>
+    </row>
+    <row r="163" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H163" t="s">
+        <v>257</v>
+      </c>
+      <c r="I163" t="s">
+        <v>172</v>
+      </c>
+      <c r="J163">
+        <v>5.6326574607792583E-5</v>
+      </c>
+    </row>
+    <row r="164" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H164" t="s">
+        <v>257</v>
+      </c>
+      <c r="I164" t="s">
+        <v>173</v>
+      </c>
+      <c r="J164">
+        <v>5.7080171837082651E-5</v>
+      </c>
+    </row>
+    <row r="165" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H165" t="s">
+        <v>257</v>
+      </c>
+      <c r="I165" t="s">
+        <v>174</v>
+      </c>
+      <c r="J165">
+        <v>5.7606812163707987E-5</v>
+      </c>
+    </row>
+    <row r="166" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H166" t="s">
+        <v>257</v>
+      </c>
+      <c r="I166" t="s">
+        <v>175</v>
+      </c>
+      <c r="J166">
+        <v>5.7887687004574841E-5</v>
+      </c>
+    </row>
+    <row r="167" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H167" t="s">
+        <v>257</v>
+      </c>
+      <c r="I167" t="s">
+        <v>176</v>
+      </c>
+      <c r="J167">
+        <v>5.7966683053568642E-5</v>
+      </c>
+    </row>
+    <row r="168" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H168" t="s">
+        <v>257</v>
+      </c>
+      <c r="I168" t="s">
+        <v>177</v>
+      </c>
+      <c r="J168">
+        <v>5.7868878421481078E-5</v>
+      </c>
+    </row>
+    <row r="169" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H169" t="s">
+        <v>257</v>
+      </c>
+      <c r="I169" t="s">
+        <v>178</v>
+      </c>
+      <c r="J169">
+        <v>5.7821230010976873E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H170" t="s">
+        <v>257</v>
+      </c>
+      <c r="I170" t="s">
+        <v>179</v>
+      </c>
+      <c r="J170">
+        <v>5.7756026922918505E-5</v>
+      </c>
+    </row>
+    <row r="171" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H171" t="s">
+        <v>257</v>
+      </c>
+      <c r="I171" t="s">
+        <v>180</v>
+      </c>
+      <c r="J171">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="172" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H172" t="s">
+        <v>257</v>
+      </c>
+      <c r="I172" t="s">
+        <v>181</v>
+      </c>
+      <c r="J172">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="173" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H173" t="s">
+        <v>257</v>
+      </c>
+      <c r="I173" t="s">
+        <v>182</v>
+      </c>
+      <c r="J173">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="174" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H174" t="s">
+        <v>257</v>
+      </c>
+      <c r="I174" t="s">
+        <v>183</v>
+      </c>
+      <c r="J174">
+        <v>5.7824991727595635E-5</v>
+      </c>
+    </row>
+    <row r="175" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H175" t="s">
+        <v>257</v>
+      </c>
+      <c r="I175" t="s">
+        <v>184</v>
+      </c>
+      <c r="J175">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="176" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H176" t="s">
+        <v>257</v>
+      </c>
+      <c r="I176" t="s">
+        <v>185</v>
+      </c>
+      <c r="J176">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H177" t="s">
+        <v>257</v>
+      </c>
+      <c r="I177" t="s">
+        <v>186</v>
+      </c>
+      <c r="J177">
+        <v>5.788016357133733E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H178" t="s">
+        <v>257</v>
+      </c>
+      <c r="I178" t="s">
+        <v>187</v>
+      </c>
+      <c r="J178">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H179" t="s">
+        <v>257</v>
+      </c>
+      <c r="I179" t="s">
+        <v>188</v>
+      </c>
+      <c r="J179">
+        <v>5.747765989313082E-5</v>
+      </c>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H180" t="s">
+        <v>257</v>
+      </c>
+      <c r="I180" t="s">
+        <v>189</v>
+      </c>
+      <c r="J180">
+        <v>5.721183191873898E-5</v>
+      </c>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H181" t="s">
+        <v>257</v>
+      </c>
+      <c r="I181" t="s">
+        <v>190</v>
+      </c>
+      <c r="J181">
+        <v>5.6907132872620041E-5</v>
+      </c>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H182" t="s">
+        <v>257</v>
+      </c>
+      <c r="I182" t="s">
+        <v>191</v>
+      </c>
+      <c r="J182">
+        <v>5.6151027832250805E-5</v>
+      </c>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H183" t="s">
+        <v>257</v>
+      </c>
+      <c r="I183" t="s">
+        <v>192</v>
+      </c>
+      <c r="J183">
+        <v>5.5944133418219416E-5</v>
+      </c>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H184" t="s">
+        <v>257</v>
+      </c>
+      <c r="I184" t="s">
+        <v>205</v>
+      </c>
+      <c r="J184">
+        <v>0.11482198637698392</v>
+      </c>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H185" t="s">
+        <v>257</v>
+      </c>
+      <c r="I185" t="s">
+        <v>206</v>
+      </c>
+      <c r="J185">
+        <v>0.11290694597564586</v>
+      </c>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H186" t="s">
+        <v>257</v>
+      </c>
+      <c r="I186" t="s">
+        <v>207</v>
+      </c>
+      <c r="J186">
+        <v>2.0894726661681417E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H187" t="s">
+        <v>257</v>
+      </c>
+      <c r="I187" t="s">
+        <v>208</v>
+      </c>
+      <c r="J187">
+        <v>0.24862365901431119</v>
+      </c>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H188" t="s">
+        <v>257</v>
+      </c>
+      <c r="I188" t="s">
+        <v>209</v>
+      </c>
+      <c r="J188">
+        <v>5.6266387141892538E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H189" t="s">
+        <v>257</v>
+      </c>
+      <c r="I189" t="s">
+        <v>210</v>
+      </c>
+      <c r="J189">
+        <v>5.6273910575130042E-5</v>
+      </c>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H190" t="s">
+        <v>257</v>
+      </c>
+      <c r="I190" t="s">
+        <v>211</v>
+      </c>
+      <c r="J190">
+        <v>5.6292719158223806E-5</v>
+      </c>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H191" t="s">
+        <v>257</v>
+      </c>
+      <c r="I191" t="s">
+        <v>212</v>
+      </c>
+      <c r="J191">
+        <v>5.64594885949885E-5</v>
+      </c>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H192" t="s">
+        <v>257</v>
+      </c>
+      <c r="I192" t="s">
+        <v>213</v>
+      </c>
+      <c r="J192">
+        <v>5.7174214752551454E-5</v>
+      </c>
+    </row>
+    <row r="193" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H193" t="s">
+        <v>257</v>
+      </c>
+      <c r="I193" t="s">
+        <v>214</v>
+      </c>
+      <c r="J193">
+        <v>5.77083785124143E-5</v>
+      </c>
+    </row>
+    <row r="194" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H194" t="s">
+        <v>257</v>
+      </c>
+      <c r="I194" t="s">
+        <v>215</v>
+      </c>
+      <c r="J194">
+        <v>5.7979222108964476E-5</v>
+      </c>
+    </row>
+    <row r="195" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H195" t="s">
+        <v>257</v>
+      </c>
+      <c r="I195" t="s">
+        <v>216</v>
+      </c>
+      <c r="J195">
+        <v>5.8068249402274949E-5</v>
+      </c>
+    </row>
+    <row r="196" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H196" t="s">
+        <v>257</v>
+      </c>
+      <c r="I196" t="s">
+        <v>217</v>
+      </c>
+      <c r="J196">
+        <v>5.7980476014504063E-5</v>
+      </c>
+    </row>
+    <row r="197" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H197" t="s">
+        <v>257</v>
+      </c>
+      <c r="I197" t="s">
+        <v>218</v>
+      </c>
+      <c r="J197">
+        <v>5.7946620564935285E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H198" t="s">
+        <v>257</v>
+      </c>
+      <c r="I198" t="s">
+        <v>219</v>
+      </c>
+      <c r="J198">
+        <v>5.7883925287956079E-5</v>
+      </c>
+    </row>
+    <row r="199" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H199" t="s">
+        <v>257</v>
+      </c>
+      <c r="I199" t="s">
+        <v>220</v>
+      </c>
+      <c r="J199">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="200" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H200" t="s">
+        <v>257</v>
+      </c>
+      <c r="I200" t="s">
+        <v>221</v>
+      </c>
+      <c r="J200">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="201" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H201" t="s">
+        <v>257</v>
+      </c>
+      <c r="I201" t="s">
+        <v>222</v>
+      </c>
+      <c r="J201">
+        <v>5.7885179193495666E-5</v>
+      </c>
+    </row>
+    <row r="202" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H202" t="s">
+        <v>257</v>
+      </c>
+      <c r="I202" t="s">
+        <v>223</v>
+      </c>
+      <c r="J202">
+        <v>5.7970444770187384E-5</v>
+      </c>
+    </row>
+    <row r="203" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H203" t="s">
+        <v>257</v>
+      </c>
+      <c r="I203" t="s">
+        <v>224</v>
+      </c>
+      <c r="J203">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="204" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H204" t="s">
+        <v>257</v>
+      </c>
+      <c r="I204" t="s">
+        <v>225</v>
+      </c>
+      <c r="J204">
+        <v>5.7996776786518651E-5</v>
+      </c>
+    </row>
+    <row r="205" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H205" t="s">
+        <v>257</v>
+      </c>
+      <c r="I205" t="s">
+        <v>226</v>
+      </c>
+      <c r="J205">
+        <v>5.7984237731122811E-5</v>
+      </c>
+    </row>
+    <row r="206" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H206" t="s">
+        <v>257</v>
+      </c>
+      <c r="I206" t="s">
+        <v>227</v>
+      </c>
+      <c r="J206">
+        <v>5.7875147949178988E-5</v>
+      </c>
+    </row>
+    <row r="207" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H207" t="s">
+        <v>257</v>
+      </c>
+      <c r="I207" t="s">
+        <v>228</v>
+      </c>
+      <c r="J207">
+        <v>5.7556655942124621E-5</v>
+      </c>
+    </row>
+    <row r="208" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H208" t="s">
+        <v>257</v>
+      </c>
+      <c r="I208" t="s">
+        <v>229</v>
+      </c>
+      <c r="J208">
+        <v>5.7309636550826545E-5</v>
+      </c>
+    </row>
+    <row r="209" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H209" t="s">
+        <v>257</v>
+      </c>
+      <c r="I209" t="s">
+        <v>230</v>
+      </c>
+      <c r="J209">
+        <v>5.7023746087801355E-5</v>
+      </c>
+    </row>
+    <row r="210" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H210" t="s">
+        <v>257</v>
+      </c>
+      <c r="I210" t="s">
+        <v>231</v>
+      </c>
+      <c r="J210">
+        <v>5.631403555239673E-5</v>
+      </c>
+    </row>
+    <row r="211" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H211" t="s">
+        <v>257</v>
+      </c>
+      <c r="I211" t="s">
+        <v>232</v>
+      </c>
+      <c r="J211">
+        <v>5.618613718735915E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H212" t="s">
+        <v>257</v>
+      </c>
+      <c r="I212" t="s">
+        <v>233</v>
+      </c>
+      <c r="J212">
+        <v>5.610964894944453E-5</v>
+      </c>
+    </row>
+    <row r="213" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H213" t="s">
+        <v>257</v>
+      </c>
+      <c r="I213" t="s">
+        <v>234</v>
+      </c>
+      <c r="J213">
+        <v>5.6129711438077867E-5</v>
+      </c>
+    </row>
+    <row r="214" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H214" t="s">
+        <v>257</v>
+      </c>
+      <c r="I214" t="s">
+        <v>235</v>
+      </c>
+      <c r="J214">
+        <v>5.6119680193761195E-5</v>
+      </c>
+    </row>
+    <row r="215" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H215" t="s">
+        <v>257</v>
+      </c>
+      <c r="I215" t="s">
+        <v>236</v>
+      </c>
+      <c r="J215">
+        <v>5.6326574607792583E-5</v>
+      </c>
+    </row>
+    <row r="216" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H216" t="s">
+        <v>257</v>
+      </c>
+      <c r="I216" t="s">
+        <v>237</v>
+      </c>
+      <c r="J216">
+        <v>5.7080171837082651E-5</v>
+      </c>
+    </row>
+    <row r="217" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H217" t="s">
+        <v>257</v>
+      </c>
+      <c r="I217" t="s">
+        <v>238</v>
+      </c>
+      <c r="J217">
+        <v>5.7606812163707987E-5</v>
+      </c>
+    </row>
+    <row r="218" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H218" t="s">
+        <v>257</v>
+      </c>
+      <c r="I218" t="s">
+        <v>239</v>
+      </c>
+      <c r="J218">
+        <v>5.7887687004574841E-5</v>
+      </c>
+    </row>
+    <row r="219" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H219" t="s">
+        <v>257</v>
+      </c>
+      <c r="I219" t="s">
+        <v>240</v>
+      </c>
+      <c r="J219">
+        <v>5.7966683053568642E-5</v>
+      </c>
+    </row>
+    <row r="220" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H220" t="s">
+        <v>257</v>
+      </c>
+      <c r="I220" t="s">
+        <v>241</v>
+      </c>
+      <c r="J220">
+        <v>5.7868878421481078E-5</v>
+      </c>
+    </row>
+    <row r="221" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H221" t="s">
+        <v>257</v>
+      </c>
+      <c r="I221" t="s">
+        <v>242</v>
+      </c>
+      <c r="J221">
+        <v>5.7821230010976873E-5</v>
+      </c>
+    </row>
+    <row r="222" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H222" t="s">
+        <v>257</v>
+      </c>
+      <c r="I222" t="s">
+        <v>243</v>
+      </c>
+      <c r="J222">
+        <v>5.7756026922918505E-5</v>
+      </c>
+    </row>
+    <row r="223" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H223" t="s">
+        <v>257</v>
+      </c>
+      <c r="I223" t="s">
+        <v>244</v>
+      </c>
+      <c r="J223">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="224" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H224" t="s">
+        <v>257</v>
+      </c>
+      <c r="I224" t="s">
+        <v>245</v>
+      </c>
+      <c r="J224">
+        <v>5.7702108984716384E-5</v>
+      </c>
+    </row>
+    <row r="225" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H225" t="s">
+        <v>257</v>
+      </c>
+      <c r="I225" t="s">
+        <v>246</v>
+      </c>
+      <c r="J225">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H226" t="s">
+        <v>257</v>
+      </c>
+      <c r="I226" t="s">
+        <v>247</v>
+      </c>
+      <c r="J226">
+        <v>5.7824991727595635E-5</v>
+      </c>
+    </row>
+    <row r="227" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H227" t="s">
+        <v>257</v>
+      </c>
+      <c r="I227" t="s">
+        <v>248</v>
+      </c>
+      <c r="J227">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="228" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H228" t="s">
+        <v>257</v>
+      </c>
+      <c r="I228" t="s">
+        <v>249</v>
+      </c>
+      <c r="J228">
+        <v>5.7872640138099826E-5</v>
+      </c>
+    </row>
+    <row r="229" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H229" t="s">
+        <v>257</v>
+      </c>
+      <c r="I229" t="s">
+        <v>250</v>
+      </c>
+      <c r="J229">
+        <v>5.788016357133733E-5</v>
+      </c>
+    </row>
+    <row r="230" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H230" t="s">
+        <v>257</v>
+      </c>
+      <c r="I230" t="s">
+        <v>251</v>
+      </c>
+      <c r="J230">
+        <v>5.7779851128170598E-5</v>
+      </c>
+    </row>
+    <row r="231" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H231" t="s">
+        <v>257</v>
+      </c>
+      <c r="I231" t="s">
+        <v>252</v>
+      </c>
+      <c r="J231">
+        <v>5.747765989313082E-5</v>
+      </c>
+    </row>
+    <row r="232" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H232" t="s">
+        <v>257</v>
+      </c>
+      <c r="I232" t="s">
+        <v>253</v>
+      </c>
+      <c r="J232">
+        <v>5.721183191873898E-5</v>
+      </c>
+    </row>
+    <row r="233" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H233" t="s">
+        <v>257</v>
+      </c>
+      <c r="I233" t="s">
+        <v>254</v>
+      </c>
+      <c r="J233">
+        <v>5.6907132872620041E-5</v>
+      </c>
+    </row>
+    <row r="234" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H234" t="s">
+        <v>257</v>
+      </c>
+      <c r="I234" t="s">
+        <v>255</v>
+      </c>
+      <c r="J234">
+        <v>5.6151027832250805E-5</v>
+      </c>
+    </row>
+    <row r="235" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H235" t="s">
+        <v>257</v>
+      </c>
+      <c r="I235" t="s">
+        <v>256</v>
+      </c>
+      <c r="J235">
+        <v>5.5944133418219416E-5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0009FF-B98D-4B9B-8848-A55672EC250E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54D1A90-4730-4CD4-9775-C3A511F8645D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="111">
   <si>
     <t>UC_N</t>
   </si>
@@ -348,43 +348,31 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,SaD,FaD,FaP,SaP,RaD,WaP,RaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaP,WaP,SaN,WaN,FaN,RaN</t>
+    <t>RaD,WaP,WaD,SaD,FaD,FaP,SaP,RaP</t>
+  </si>
+  <si>
+    <t>FaN,SaN,WaN,WaP,RaN,FaP,SaP,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
   </si>
   <si>
-    <t>&lt;NA&gt;a&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aD</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aN</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;aP</t>
-  </si>
-  <si>
-    <t>Fa&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>Ra&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>Sa&lt;NA&gt;</t>
-  </si>
-  <si>
-    <t>Wa&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>elc_industry</t>
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
@@ -934,7 +922,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,RaP,WaP,SaN,WaN,FaN,RaN</v>
+        <v>FaN,SaN,WaN,WaP,RaN,FaP,SaP,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -966,7 +954,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,SaD,FaD,FaP,SaP,RaD,WaP,RaP</v>
+        <v>RaD,WaP,WaD,SaD,FaD,FaP,SaP,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1579,7 +1567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47C4AB3-76A6-49E2-8D8C-EB287CC98967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD78C93-490E-4CAA-B7A4-D04F694F829E}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1658,22 +1646,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FE5892-3B88-45FC-BC57-068A73E5D131}">
-  <dimension ref="B2:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B0BD1E-F370-4E1E-949B-2EBA6AB7314D}">
+  <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>97</v>
       </c>
       <c r="H2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>70</v>
       </c>
@@ -1698,8 +1689,17 @@
       <c r="K3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>83</v>
       </c>
@@ -1724,8 +1724,17 @@
       <c r="K4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4">
+        <v>0.34121824638077031</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>86</v>
       </c>
@@ -1750,8 +1759,17 @@
       <c r="K5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5">
+        <v>0.27238459437312212</v>
+      </c>
+      <c r="O5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>87</v>
       </c>
@@ -1776,8 +1794,17 @@
       <c r="K6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6">
+        <v>0.4005462988254575</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>88</v>
       </c>
@@ -1802,8 +1829,17 @@
       <c r="K7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>0.1858508604206501</v>
+      </c>
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>89</v>
       </c>
@@ -1829,7 +1865,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>90</v>
       </c>
@@ -1855,7 +1891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>91</v>
       </c>
@@ -1881,7 +1917,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>92</v>
       </c>
@@ -1907,7 +1943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -1933,7 +1969,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -1959,7 +1995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -1985,7 +2021,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -2017,8 +2053,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F72B6AD-2033-4065-A379-C91957DF3CF0}">
-  <dimension ref="B2:O43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B850E68-A600-45C9-97F5-85BE9F4C32C1}">
+  <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2064,7 +2100,7 @@
         <v>70</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -2084,19 +2120,19 @@
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.12180323213701948</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="O4">
-        <v>0.29855360491322314</v>
+        <v>0.15073715204784954</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
@@ -2116,19 +2152,19 @@
         <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="J5">
-        <v>0.1272894084229072</v>
+        <v>9.5914736714171028E-2</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O5">
-        <v>0.20638545944679532</v>
+        <v>0.27331331863462793</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
@@ -2148,19 +2184,19 @@
         <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="J6">
-        <v>9.9306011281171946E-2</v>
+        <v>2.2622687742579004E-2</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
       </c>
       <c r="N6" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="O6">
-        <v>0.3604790159398843</v>
+        <v>0.12823124109892037</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
@@ -2180,19 +2216,19 @@
         <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="J7">
-        <v>2.3404580295920872E-2</v>
+        <v>0.12381191110312319</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="O7">
-        <v>0.18767565114867146</v>
+        <v>0.14870297606054006</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
@@ -2212,19 +2248,19 @@
         <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="J8">
-        <v>6.008516414844238E-2</v>
+        <v>9.6776845662770505E-2</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="O8">
-        <v>0.23353941933261613</v>
+        <v>0.2866265588387209</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
@@ -2244,19 +2280,19 @@
         <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J9">
-        <v>3.0450808034254869E-2</v>
+        <v>2.2885038389910593E-2</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="O9">
-        <v>0.15073715204784954</v>
+        <v>0.13668704155105349</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
@@ -2276,19 +2312,19 @@
         <v>104</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J10">
-        <v>2.3978684178542757E-2</v>
+        <v>0.11842376509475055</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O10">
-        <v>0.27331331863462793</v>
+        <v>0.10040299219575366</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
@@ -2308,19 +2344,19 @@
         <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J11">
-        <v>5.655671935644751E-3</v>
+        <v>8.9684787411242056E-2</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O11">
-        <v>0.12823124109892037</v>
+        <v>0.27182589319665151</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.45">
@@ -2340,19 +2376,19 @@
         <v>104</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J12">
-        <v>6.0868448788951077E-2</v>
+        <v>2.1216940427142304E-2</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="O12">
-        <v>0.23571453587767732</v>
+        <v>7.2899629572647617E-2</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
@@ -2372,19 +2408,19 @@
         <v>104</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J13">
-        <v>3.0952977775780797E-2</v>
+        <v>0.14511872535673551</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O13">
-        <v>0.14870297606054006</v>
+        <v>8.9089249675611937E-2</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
@@ -2404,19 +2440,19 @@
         <v>104</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J14">
-        <v>2.4194211415692626E-2</v>
+        <v>0.11484767533650414</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O14">
-        <v>0.2866265588387209</v>
+        <v>0.22595976001155549</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
@@ -2436,399 +2472,151 @@
         <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J15">
-        <v>5.7212595974776483E-3</v>
+        <v>2.6893654624051602E-2</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O15">
-        <v>0.13668704155105349</v>
+        <v>6.5562768880820022E-2</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="J16">
-        <v>5.7331373233283731E-2</v>
-      </c>
-      <c r="M16" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" t="s">
-        <v>111</v>
-      </c>
-      <c r="O16">
-        <v>0.19339637573758539</v>
-      </c>
-    </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.45">
+        <v>0.11504438010107754</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.45">
       <c r="H17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17">
+        <v>0.1132607220413188</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18">
+        <v>2.094999980445944E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19">
+        <v>0.11634074747753814</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20">
+        <v>0.1144780933687856</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H21" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>2.1178615889706189E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
         <v>91</v>
       </c>
-      <c r="J17">
-        <v>2.9605941273687639E-2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" t="s">
-        <v>91</v>
-      </c>
-      <c r="O17">
-        <v>0.10040299219575366</v>
-      </c>
-    </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J22">
+        <v>0.11637296328887572</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" t="s">
         <v>92</v>
       </c>
-      <c r="J18">
-        <v>2.2421196852810514E-2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O18">
-        <v>0.27182589319665151</v>
-      </c>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J23">
+        <v>0.11439291352788516</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" t="s">
         <v>93</v>
       </c>
-      <c r="J19">
-        <v>5.3042351067855761E-3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" t="s">
-        <v>93</v>
-      </c>
-      <c r="O19">
-        <v>7.2899629572647617E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I20" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20">
-        <v>7.1715013829322813E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>14</v>
-      </c>
-      <c r="N20" t="s">
-        <v>112</v>
-      </c>
-      <c r="O20">
-        <v>0.17074609232764515</v>
-      </c>
-    </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H21" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J24">
+        <v>2.1137041711112123E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" t="s">
         <v>94</v>
       </c>
-      <c r="J21">
-        <v>3.6279681339183877E-2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N21" t="s">
-        <v>94</v>
-      </c>
-      <c r="O21">
-        <v>8.9089249675611937E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J25">
+        <v>0.11407692039207876</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" t="s">
         <v>95</v>
       </c>
-      <c r="J22">
-        <v>2.8711918834126035E-2</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" t="s">
-        <v>95</v>
-      </c>
-      <c r="O22">
-        <v>0.22595976001155549</v>
-      </c>
-    </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J26">
+        <v>0.11199131435495494</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.45">
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" t="s">
         <v>96</v>
       </c>
-      <c r="J23">
-        <v>6.7234136560129004E-3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>14</v>
-      </c>
-      <c r="N23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23">
-        <v>6.5562768880820022E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H24" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>105</v>
-      </c>
-      <c r="J24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J25">
-        <v>0.11545875281489254</v>
-      </c>
-    </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H26" t="s">
-        <v>113</v>
-      </c>
-      <c r="I26" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26">
-        <v>0.11353076082323613</v>
-      </c>
-    </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H27" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" t="s">
-        <v>108</v>
-      </c>
       <c r="J27">
-        <v>2.1010486361871319E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H28" t="s">
-        <v>113</v>
-      </c>
-      <c r="I28" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28">
-        <v>6.2313775486713949E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H29" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29">
-        <v>2.8761095025269384E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30">
-        <v>2.8315180510329701E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H31" t="s">
-        <v>113</v>
-      </c>
-      <c r="I31" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31">
-        <v>5.2374999511148601E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="8:15" x14ac:dyDescent="0.45">
-      <c r="H32" t="s">
-        <v>113</v>
-      </c>
-      <c r="I32" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32">
-        <v>6.2999364184007478E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H33" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" t="s">
-        <v>88</v>
-      </c>
-      <c r="J33">
-        <v>2.9085186869384536E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H34" t="s">
-        <v>113</v>
-      </c>
-      <c r="I34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34">
-        <v>2.8619523342196401E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" t="s">
-        <v>90</v>
-      </c>
-      <c r="J35">
-        <v>5.2946539724265471E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H36" t="s">
-        <v>113</v>
-      </c>
-      <c r="I36" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36">
-        <v>6.297572963196825E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H37" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" t="s">
-        <v>91</v>
-      </c>
-      <c r="J37">
-        <v>2.9093240822218931E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I38" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38">
-        <v>2.8598228381971291E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" t="s">
-        <v>93</v>
-      </c>
-      <c r="J39">
-        <v>5.2842604277780307E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H40" t="s">
-        <v>113</v>
-      </c>
-      <c r="I40" t="s">
-        <v>112</v>
-      </c>
-      <c r="J40">
-        <v>6.171113069731031E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H41" t="s">
-        <v>113</v>
-      </c>
-      <c r="I41" t="s">
-        <v>94</v>
-      </c>
-      <c r="J41">
-        <v>2.8519230098019689E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H42" t="s">
-        <v>113</v>
-      </c>
-      <c r="I42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J42">
-        <v>2.7997828588738734E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.45">
-      <c r="H43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J43">
-        <v>5.1940720105518824E-3</v>
+        <v>2.077628804220753E-2</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF367B-89A9-46F8-BA59-B8D58685C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEA414D-C8B6-44F9-919F-FA8B8F621B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,RaD,WaP,SaD,RaP,WaD</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaN,RaP,WaP,RaN,FaP,SaP</t>
+    <t>WaD,RaD,FaD,WaP,SaD,RaP,FaP,SaP</t>
+  </si>
+  <si>
+    <t>RaP,RaN,FaP,SaP,FaN,SaN,WaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,FaN,RaP,WaP,RaN,FaP,SaP</v>
+        <v>RaP,RaN,FaP,SaP,FaN,SaN,WaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,RaD,WaP,SaD,RaP,WaD</v>
+        <v>WaD,RaD,FaD,WaP,SaD,RaP,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F4D4DD-2F5D-4111-9BFA-4B63F59083E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DB811-0774-43D8-B703-9B40F516CF50}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF3FDA8-D103-4CE3-9803-7751EDE21714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D9851-708B-437F-BD0D-9ED3825BCBA5}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.27238459437312212</v>
+        <v>0.4005462988254575</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.34121824638077031</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.4005462988254575</v>
+        <v>0.34121824638077031</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>0.1858508604206501</v>
+        <v>0.27238459437312212</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3371C2B-9C08-4686-88A0-EDD4810873A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA470AE-0610-451A-82FC-DB6170A2EDCB}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEA414D-C8B6-44F9-919F-FA8B8F621B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E65A9-DE9D-4EAB-B05C-807DA551C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaD,FaD,WaP,SaD,RaP,FaP,SaP</t>
-  </si>
-  <si>
-    <t>RaP,RaN,FaP,SaP,FaN,SaN,WaN,WaP</t>
+    <t>SaD,WaD,RaP,RaD,FaD,WaP,FaP,SaP</t>
+  </si>
+  <si>
+    <t>WaP,FaP,SaP,SaN,WaN,FaN,RaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,RaN,FaP,SaP,FaN,SaN,WaN,WaP</v>
+        <v>WaP,FaP,SaP,SaN,WaN,FaN,RaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaD,FaD,WaP,SaD,RaP,FaP,SaP</v>
+        <v>SaD,WaD,RaP,RaD,FaD,WaP,FaP,SaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DB811-0774-43D8-B703-9B40F516CF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F2BEB-1EC2-4F73-A721-A2EF52143F64}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397D9851-708B-437F-BD0D-9ED3825BCBA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F77480-A9D1-4726-9231-08DD3BF30F96}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.1858508604206501</v>
+        <v>0.34121824638077031</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.34121824638077031</v>
+        <v>0.27238459437312212</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.27238459437312212</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA470AE-0610-451A-82FC-DB6170A2EDCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986B3E5-7DE8-4079-B3FF-C17839CBD235}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E65A9-DE9D-4EAB-B05C-807DA551C7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51633B6-503D-4151-8677-1A3F1E2DD40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,WaD,RaP,RaD,FaD,WaP,FaP,SaP</t>
-  </si>
-  <si>
-    <t>WaP,FaP,SaP,SaN,WaN,FaN,RaP,RaN</t>
+    <t>FaD,SaD,RaD,RaP,FaP,SaP,WaD,WaP</t>
+  </si>
+  <si>
+    <t>RaP,FaP,SaP,SaN,WaN,WaP,RaN,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,FaP,SaP,SaN,WaN,FaN,RaP,RaN</v>
+        <v>RaP,FaP,SaP,SaN,WaN,WaP,RaN,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,WaD,RaP,RaD,FaD,WaP,FaP,SaP</v>
+        <v>FaD,SaD,RaD,RaP,FaP,SaP,WaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5F2BEB-1EC2-4F73-A721-A2EF52143F64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC793A21-7056-440C-9166-7BACB57C6884}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F77480-A9D1-4726-9231-08DD3BF30F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F63064-8F0E-4F28-811E-9EFD032057F4}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.4005462988254575</v>
+        <v>0.34121824638077031</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.34121824638077031</v>
+        <v>0.4005462988254575</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5986B3E5-7DE8-4079-B3FF-C17839CBD235}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED09B32-77DD-4E3A-B5ED-8D6F00B51B11}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51633B6-503D-4151-8677-1A3F1E2DD40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7EA171-0880-4978-9CA1-D6D859E02519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,SaD,RaD,RaP,FaP,SaP,WaD,WaP</t>
-  </si>
-  <si>
-    <t>RaP,FaP,SaP,SaN,WaN,WaP,RaN,FaN</t>
+    <t>FaP,SaP,FaD,WaD,RaD,SaD,RaP,WaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,RaP,FaN,WaP,FaP,SaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaP,SaP,SaN,WaN,WaP,RaN,FaN</v>
+        <v>SaN,WaN,RaP,FaN,WaP,FaP,SaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,SaD,RaD,RaP,FaP,SaP,WaD,WaP</v>
+        <v>FaP,SaP,FaD,WaD,RaD,SaD,RaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC793A21-7056-440C-9166-7BACB57C6884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A6A3-FECB-48CE-A6D7-C940C0ABCAF6}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F63064-8F0E-4F28-811E-9EFD032057F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EEECC-455B-49FA-9DA4-CA3CB8C9B83C}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.34121824638077031</v>
+        <v>0.4005462988254575</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.4005462988254575</v>
+        <v>0.34121824638077031</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED09B32-77DD-4E3A-B5ED-8D6F00B51B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D63D8-CD02-4F72-852B-C0E54EE86791}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7EA171-0880-4978-9CA1-D6D859E02519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A347BB-B93C-4D7C-8148-7BA902DF2F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,FaD,WaD,RaD,SaD,RaP,WaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,RaP,FaN,WaP,FaP,SaP,RaN</t>
+    <t>RaD,FaP,SaP,RaP,WaD,SaD,FaD,WaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,FaN,WaP,FaP,SaP,RaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,RaP,FaN,WaP,FaP,SaP,RaN</v>
+        <v>SaN,WaN,FaN,WaP,FaP,SaP,RaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,FaD,WaD,RaD,SaD,RaP,WaP</v>
+        <v>RaD,FaP,SaP,RaP,WaD,SaD,FaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6502A6A3-FECB-48CE-A6D7-C940C0ABCAF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAC4015-7C3B-4D0C-8363-FC22B29930D1}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9EEECC-455B-49FA-9DA4-CA3CB8C9B83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3538102F-539A-445D-8373-C0D74599B275}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.34121824638077031</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.27238459437312212</v>
+        <v>0.34121824638077031</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>0.1858508604206501</v>
+        <v>0.27238459437312212</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208D63D8-CD02-4F72-852B-C0E54EE86791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C481C10-262C-4ACA-B5DA-4505CE1801DD}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_ts_16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A347BB-B93C-4D7C-8148-7BA902DF2F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BA4514-73CA-45AF-BAC0-E527C7DB03E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,FaP,SaP,RaP,WaD,SaD,FaD,WaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,FaN,WaP,FaP,SaP,RaP,RaN</t>
+    <t>WaD,RaD,RaP,SaD,FaD,FaP,SaP,WaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,RaP,WaP,SaN,WaN,FaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,FaN,WaP,FaP,SaP,RaP,RaN</v>
+        <v>FaP,SaP,RaP,WaP,SaN,WaN,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,FaP,SaP,RaP,WaD,SaD,FaD,WaP</v>
+        <v>WaD,RaD,RaP,SaD,FaD,FaP,SaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAC4015-7C3B-4D0C-8363-FC22B29930D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4858F056-410E-4E24-AAEB-1FAC540CB5CC}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3538102F-539A-445D-8373-C0D74599B275}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2278882B-EE12-4F14-BD30-E8064E154A9E}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.4005462988254575</v>
+        <v>0.3412182463807702</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.1858508604206501</v>
+        <v>0.40054629882545745</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.34121824638077031</v>
+        <v>0.27238459437312207</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.27238459437312212</v>
+        <v>0.18585086042065005</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C481C10-262C-4ACA-B5DA-4505CE1801DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DF8CCE-57F4-4DE0-8585-A0656F2B4B85}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
